--- a/data/Navidad.xlsx
+++ b/data/Navidad.xlsx
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Navidad</t>
+          <t>Iustre Municipalidad de Navidad</t>
         </is>
       </c>
       <c r="F26" t="n">

--- a/data/Navidad.xlsx
+++ b/data/Navidad.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F7" t="n">
